--- a/biology/Médecine/Wolfgang_U._Eckart/Wolfgang_U._Eckart.xlsx
+++ b/biology/Médecine/Wolfgang_U._Eckart/Wolfgang_U._Eckart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wolfgang Uwe Eckart (né le 7 février 1952 à Schwelm et mort le 16 août 2021 à Heidelberg) est un historien médical allemand et directeur de l'Institut d'histoire et d'éthique de la médecine de l'Université de Heidelberg.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wolfgang Eckart étudie la médecine, l'histoire et la philosophie à l'Université de Münster. Il s'engage politiquement pendant ses études à l'Association universitaire socialiste (SHB) et au MSB-Spartakus. En 1973/74, il est conseiller culturel de la SHB au sein du comité général des étudiants de la WWU. En 1977, il obtient sa licence pour pratiquer la médecine, son doctorat suivie un an plus tard d'une dissertation sur le docteur de Wittemberg, Daniel Sennert (1572-1637)[1]. De 1976 à 1988, Eckart travaille comme assistant et à partir de 1986 comme chargé de cours privé à l'Institut de théorie et d'histoire de la médecine de Münster. Il obtient en 1986 une habilitation en histoire de la médecine avec une étude sur les médecins allemands au Japon et en Chine, qu'il achève en tant que médecin au Bureau de recherche historique militaire de la Bundeswehr à Fribourg[2],[3]. Ses professeurs universitaires sont Richard Toellner (de), Karl Eduard Rothschuh et Manfred Messerschmidt (de).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wolfgang Eckart étudie la médecine, l'histoire et la philosophie à l'Université de Münster. Il s'engage politiquement pendant ses études à l'Association universitaire socialiste (SHB) et au MSB-Spartakus. En 1973/74, il est conseiller culturel de la SHB au sein du comité général des étudiants de la WWU. En 1977, il obtient sa licence pour pratiquer la médecine, son doctorat suivie un an plus tard d'une dissertation sur le docteur de Wittemberg, Daniel Sennert (1572-1637). De 1976 à 1988, Eckart travaille comme assistant et à partir de 1986 comme chargé de cours privé à l'Institut de théorie et d'histoire de la médecine de Münster. Il obtient en 1986 une habilitation en histoire de la médecine avec une étude sur les médecins allemands au Japon et en Chine, qu'il achève en tant que médecin au Bureau de recherche historique militaire de la Bundeswehr à Fribourg,. Ses professeurs universitaires sont Richard Toellner (de), Karl Eduard Rothschuh et Manfred Messerschmidt (de).
 De 1988 à 1992, il est professeur d'histoire de la médecine, directeur du département d'histoire de la médecine et premier professeur d'histoire de la médecine à l'École de médecine d'Hanovre (de). En 1992, Eckart est nommé professeur d'histoire de la médecine et directeur de l'Institut d'histoire de la médecine (aujourd'hui Institut d'histoire et d'éthique de la médecine) à l'Université de Heidelberg, où il travaille jusqu'en septembre 2017.
-De 1994 à 1997, il est membre de la commission de géomédecine de l'Académie des sciences de Heidelberg. De 1996 à 1998, Eckart est président de la Société pour l'histoire des sciences (de). En 2002, il est élu à la Société des sciences Leibniz à Berlin et en 2009 à l'Académie allemande des sciences Leopoldina[4]. En 2016, il reçoit la Croix du mérite de l'Ordre du mérite de la République fédérale d'Allemagne[5].
+De 1994 à 1997, il est membre de la commission de géomédecine de l'Académie des sciences de Heidelberg. De 1996 à 1998, Eckart est président de la Société pour l'histoire des sciences (de). En 2002, il est élu à la Société des sciences Leibniz à Berlin et en 2009 à l'Académie allemande des sciences Leopoldina. En 2016, il reçoit la Croix du mérite de l'Ordre du mérite de la République fédérale d'Allemagne.
 Ses principaux domaines de recherche comprennent la médecine byzantine, l'émergence de la médecine moderne aux XVIe et XVIIe siècles, la médecine dans la littérature, la médecine dans l'impérialisme colonial européen, les missions médicales, la médecine et la guerre ainsi que la médecine et la politique en Allemagne de 1871 à 1945 (en particulier la politique culturelle étrangère dans la République de Weimar et sous le national-socialisme).
 Eckart prend sa retraite le 1er octobre 2017 et concentre dès lors son travail sur la Leopoldina. Il décède en août 2021 des suites d'une longue et grave maladie à l'âge de 69 ans.
 </t>
@@ -546,7 +560,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Membre de l'Académie allemande des sciences naturelles Leopoldina
 Titulaire de la Croix Fédérale du Mérite (2016)</t>
@@ -577,7 +593,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>mit Klaus Peter Pohl: Das Studium der Medizin und die Fächer „Theorie der Medizin“ und „Geschichte der Medizin“ im Urteil der Medizinstudenten. Ergebnisse einer Umfrage-Untersuchung unter den Studenten der Medizinischen Fakultät der Universität Münster im Wintersemester 1975/76 (= Münstersche Beiträge zur Geschichte und Theorie der Medizin. Nr. 12). Hrsg. von Richard Toellner (de). Institut für Theorie und Geschichte der Medizin der Universität, Münster 1976.
 Der Streit zwischen Daniel Sennert (1572–1637) und Johann Freitag (1581–1641). In: Münstersche Beiträge zur Geschichte und Theorie der Medizin, XIII: Deutsch-Niederländische Medizinhistorikertreffen. Vorträge. Münster 1978, S. 21–36.
@@ -623,7 +641,9 @@
           <t>Rédactions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>mit Johanna Geyer-Cordesch: Heilberufe und Kranke im 17. und 18. Jahrhundert. Die Quellen- und Forschungssituation. Burgverlag, Tecklenburg 1982  (ISBN 3-922506-03-8).
 mit Udo Benzenhöfer (de): Medizin im Spielfilm des Nationalsozialismus. Burgverlag, Tecklenburg 1990.
